--- a/area_ha_Cerr_Pant.xlsx
+++ b/area_ha_Cerr_Pant.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dcd8842240deb54/Doutorado/Predicao_ferrovias/ibm-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dcd8842240deb54/Doutorado/Predicao_ferrovias/ibm-code/ibm-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{785B3E3F-5278-D74A-99BE-60C511E5C04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C685705-35F6-6A4B-8E9E-32D3DB9FFA3E}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{785B3E3F-5278-D74A-99BE-60C511E5C04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218DD1FC-C37F-CC4A-8CDA-C7FA728D33D0}"/>
   <bookViews>
-    <workbookView xWindow="-29040" yWindow="640" windowWidth="26640" windowHeight="16040" xr2:uid="{B8E056C8-EEB7-4D47-AC26-14033C2E81DA}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="26640" windowHeight="17480" xr2:uid="{B8E056C8-EEB7-4D47-AC26-14033C2E81DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Forest Formation</t>
   </si>
@@ -135,15 +136,25 @@
   </si>
   <si>
     <t>pland2017</t>
+  </si>
+  <si>
+    <t>Perennial Crops</t>
+  </si>
+  <si>
+    <t>Temporary Crops</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -203,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +226,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,11 +546,790 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ED399E-8539-A646-BB7A-A1E1563FFCB2}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30807919.395488217</v>
+      </c>
+      <c r="D2" s="4">
+        <v>30792254.194465827</v>
+      </c>
+      <c r="E2" s="4">
+        <v>30807631.461017858</v>
+      </c>
+      <c r="F2" s="4">
+        <v>30797795.224738736</v>
+      </c>
+      <c r="G2" s="4">
+        <v>30796685.514917664</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.14426906576613313</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.14419570787761346</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.14426771741032512</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.14422165572727427</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.14421645917308465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>66247.575068617894</v>
+      </c>
+      <c r="D3" s="4">
+        <v>66606.871009973111</v>
+      </c>
+      <c r="E3" s="4">
+        <v>66582.352607599634</v>
+      </c>
+      <c r="F3" s="4">
+        <v>66543.065683460241</v>
+      </c>
+      <c r="G3" s="4">
+        <v>66417.132015424038</v>
+      </c>
+      <c r="H3" s="11">
+        <v>3.1022788789238906E-4</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3.1191041922881143E-4</v>
+      </c>
+      <c r="J3" s="11">
+        <v>3.1179560306874833E-4</v>
+      </c>
+      <c r="K3" s="11">
+        <v>3.1161162804045541E-4</v>
+      </c>
+      <c r="L3" s="11">
+        <v>3.1102189886817702E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>65218583.739604846</v>
+      </c>
+      <c r="D4" s="4">
+        <v>64544941.976929463</v>
+      </c>
+      <c r="E4" s="4">
+        <v>64020706.491496019</v>
+      </c>
+      <c r="F4" s="4">
+        <v>63689012.317515977</v>
+      </c>
+      <c r="G4" s="4">
+        <v>63548125.025502242</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.30540926915308192</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.30225470144227251</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.29979978188882689</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.29824650566832389</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.29758675081534747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16264224.762007289</v>
+      </c>
+      <c r="D5" s="4">
+        <v>14652381.147613926</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15198593.513225822</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15138458.95919212</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15137950.393700199</v>
+      </c>
+      <c r="H5" s="11">
+        <v>7.6163030735818912E-2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>6.8614998380096368E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>7.1172832509858244E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <v>7.0891231022288156E-2</v>
+      </c>
+      <c r="L5" s="11">
+        <v>7.0888849511410876E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.5386651611328121E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.5386651611328121E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8.5386651611328121E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.5386651611328121E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8.5386651611328121E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>3.9985343699219907E-10</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3.9985343699219918E-10</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3.998534369921982E-10</v>
+      </c>
+      <c r="K6" s="11">
+        <v>3.9985343699219752E-10</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3.9985343715208006E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>439604.90163640823</v>
+      </c>
+      <c r="D7" s="4">
+        <v>439510.44128157396</v>
+      </c>
+      <c r="E7" s="4">
+        <v>439507.55128131178</v>
+      </c>
+      <c r="F7" s="4">
+        <v>439485.9898268932</v>
+      </c>
+      <c r="G7" s="4">
+        <v>439472.47768243524</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.0586066735355539E-3</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2.0581643292483945E-3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2.0581507957918607E-3</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2.0580498265947624E-3</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2.0579865519840738E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7473.1633070739572</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7391.8044290099842</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7316.7892424011015</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7254.3663694457719</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7232.9313283935189</v>
+      </c>
+      <c r="H8" s="11">
+        <v>3.4995751410177962E-5</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3.4614759458745218E-5</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3.4263474104112564E-5</v>
+      </c>
+      <c r="K8" s="11">
+        <v>3.3971156747393437E-5</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3.3870779539496741E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7744383.7246928047</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8970865.1166719962</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8565845.3590215333</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8564136.9989477582</v>
+      </c>
+      <c r="G9" s="4">
+        <v>8509000.2465809304</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3.6265837707284476E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4.2009274072750236E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>4.0112624665727369E-2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>4.0104624660641866E-2</v>
+      </c>
+      <c r="L9" s="11">
+        <v>3.9846427177054181E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5">
+        <v>492173.58672496042</v>
+      </c>
+      <c r="D10" s="5">
+        <v>517629.71394566353</v>
+      </c>
+      <c r="E10" s="5">
+        <v>560464.81107247225</v>
+      </c>
+      <c r="F10" s="5">
+        <v>579800.3467835132</v>
+      </c>
+      <c r="G10" s="5">
+        <v>582629.54559606162</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2.3047782824949744E-3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2.4239856734586283E-3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2.6245762867082557E-3</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2.7151218259025695E-3</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2.7283705590585832E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <v>20750255.448447727</v>
+      </c>
+      <c r="D11" s="5">
+        <v>21704831.667050201</v>
+      </c>
+      <c r="E11" s="5">
+        <v>22469938.080869377</v>
+      </c>
+      <c r="F11" s="5">
+        <v>23183222.456318498</v>
+      </c>
+      <c r="G11" s="5">
+        <v>23906320.527917068</v>
+      </c>
+      <c r="H11" s="11">
+        <v>9.7170468720279096E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.10164061217568285</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.10522349572313612</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.10856370410107316</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.11194986865463158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2566330.0601415737</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2702435.8265990471</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2801836.4888879079</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2910368.3329940001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2993217.6327176699</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1.201775541773167E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.2655119191641015E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1.3120598229704458E-2</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1.3628837281944832E-2</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1.4016808669747492E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12484279.921426564</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12303115.163227066</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12020863.303992329</v>
+      </c>
+      <c r="F13" s="4">
+        <v>11905055.879346371</v>
+      </c>
+      <c r="G13" s="4">
+        <v>12041572.302011102</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5.8462091448177211E-2</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5.761372288165155E-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>5.6291977926407437E-2</v>
+      </c>
+      <c r="K13" s="11">
+        <v>5.5749668374503583E-2</v>
+      </c>
+      <c r="L13" s="11">
+        <v>5.6388955215051946E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <v>53128277.306800857</v>
+      </c>
+      <c r="D14" s="4">
+        <v>52972071.618074484</v>
+      </c>
+      <c r="E14" s="4">
+        <v>52949860.347448863</v>
+      </c>
+      <c r="F14" s="4">
+        <v>52645698.85196168</v>
+      </c>
+      <c r="G14" s="4">
+        <v>51895908.351882748</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.24879209901914726</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.24806061019347839</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.24795659800033026</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.2465322533624251</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.24302109213844245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4">
+        <v>108609.99893452557</v>
+      </c>
+      <c r="D15" s="4">
+        <v>107700.6605731759</v>
+      </c>
+      <c r="E15" s="4">
+        <v>107109.95713358866</v>
+      </c>
+      <c r="F15" s="4">
+        <v>107187.78821635791</v>
+      </c>
+      <c r="G15" s="4">
+        <v>105650.07592584395</v>
+      </c>
+      <c r="H15" s="11">
+        <v>5.0860504008717433E-4</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5.0434673902590788E-4</v>
+      </c>
+      <c r="J15" s="11">
+        <v>5.0158055958093666E-4</v>
+      </c>
+      <c r="K15" s="11">
+        <v>5.0194503137322211E-4</v>
+      </c>
+      <c r="L15" s="11">
+        <v>4.9474414556762412E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>38087.026579095298</v>
+      </c>
+      <c r="D16" s="4">
+        <v>39195.481399169614</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40353.5186394591</v>
+      </c>
+      <c r="F16" s="4">
+        <v>41771.442574786117</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43062.069393652302</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.783560801960766E-4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1.8354681506146028E-4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1.88969737285913E-4</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1.9560967161094941E-4</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2.0165349188665111E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>561227.65633208503</v>
+      </c>
+      <c r="D17" s="4">
+        <v>590700.59524327912</v>
+      </c>
+      <c r="E17" s="4">
+        <v>585621.08951534284</v>
+      </c>
+      <c r="F17" s="4">
+        <v>578561.48431523924</v>
+      </c>
+      <c r="G17" s="4">
+        <v>559355.87233721768</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2.6281485815950289E-3</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2.7661661253153952E-3</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.7423795288719298E-3</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2.7093204107334302E-3</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2.6193832867848856E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4">
+        <v>750865.13712077634</v>
+      </c>
+      <c r="D18" s="4">
+        <v>765760.78629033768</v>
+      </c>
+      <c r="E18" s="4">
+        <v>778455.91960503859</v>
+      </c>
+      <c r="F18" s="4">
+        <v>790274.74929827137</v>
+      </c>
+      <c r="G18" s="4">
+        <v>800878.66445451905</v>
+      </c>
+      <c r="H18" s="11">
+        <v>3.5161936922179227E-3</v>
+      </c>
+      <c r="I18" s="11">
+        <v>3.5859478798372082E-3</v>
+      </c>
+      <c r="J18" s="11">
+        <v>3.6453973674698062E-3</v>
+      </c>
+      <c r="K18" s="11">
+        <v>3.7007432509877057E-3</v>
+      </c>
+      <c r="L18" s="11">
+        <v>3.7503998655619127E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2116186.926533951</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2367355.0872174613</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2124063.3381472346</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2100113.2295108736</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2111268.0517414706</v>
+      </c>
+      <c r="H19" s="11">
+        <v>9.9097997160518606E-3</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1.108598417131614E-2</v>
+      </c>
+      <c r="J19" s="11">
+        <v>9.9466838214161361E-3</v>
+      </c>
+      <c r="K19" s="11">
+        <v>9.8345288993777549E-3</v>
+      </c>
+      <c r="L19" s="11">
+        <v>9.8867653351827206E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3">
+        <v>143.05947899169925</v>
+      </c>
+      <c r="D20" s="3">
+        <v>125.23830458374032</v>
+      </c>
+      <c r="E20" s="3">
+        <v>123.01712265625002</v>
+      </c>
+      <c r="F20" s="3">
+        <v>131.9067331237793</v>
+      </c>
+      <c r="G20" s="3">
+        <v>126.48923593139652</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6.6992701188853298E-7</v>
+      </c>
+      <c r="I20" s="11">
+        <v>5.8647300937422894E-7</v>
+      </c>
+      <c r="J20" s="11">
+        <v>5.7607153313488846E-7</v>
+      </c>
+      <c r="K20" s="11">
+        <v>6.1770030334528681E-7</v>
+      </c>
+      <c r="L20" s="11">
+        <v>5.9233094161054191E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9367C9D2-CC58-D147-B9DE-F5C7EDEBF09E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
